--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input_consultant.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Bainbasat_input_consultant.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Basic_Parameter" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Basic_Parameter!$A$1:$B$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>parameters</t>
   </si>
@@ -30,9 +33,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>Basin Area</t>
   </si>
   <si>
@@ -42,9 +42,6 @@
     <t>Avg_GL</t>
   </si>
   <si>
-    <t>feet-PWD</t>
-  </si>
-  <si>
     <t>Highest Water Level ,RS</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>Vent Width</t>
   </si>
   <si>
-    <t>feet</t>
-  </si>
-  <si>
     <t>Vent Height</t>
   </si>
   <si>
-    <t>cfs/sqmile</t>
-  </si>
-  <si>
     <t>glacis_drop</t>
   </si>
   <si>
@@ -84,18 +75,12 @@
     <t>Pier_width</t>
   </si>
   <si>
-    <t>inch</t>
-  </si>
-  <si>
     <t>Abutment_width</t>
   </si>
   <si>
     <t>Barrel Length</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>Laycey's Silt Factor</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>unit weight of fill soil</t>
   </si>
   <si>
-    <t>pcf</t>
-  </si>
-  <si>
     <t>friction Angle of fill soil</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>return wall level</t>
   </si>
   <si>
-    <t>fee-pwd</t>
-  </si>
-  <si>
     <t>C/S Slope (1:N) of Embankment</t>
   </si>
   <si>
@@ -148,6 +127,24 @@
   </si>
   <si>
     <t>Discharge</t>
+  </si>
+  <si>
+    <t>m-PWD</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>kn/m^3</t>
+  </si>
+  <si>
+    <t>m-pwd</t>
+  </si>
+  <si>
+    <t>cms/sqmile</t>
+  </si>
+  <si>
+    <t>Polder: 4</t>
   </si>
 </sst>
 </file>
@@ -171,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,21 +176,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,355 +516,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="235" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="130" zoomScaleNormal="235" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11.48</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-4.92</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-5.4</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>19.68</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-3.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1">
-        <v>12.68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1">
-        <v>11.35</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
